--- a/experimental results/e4000_MountainCar__compare.xlsx
+++ b/experimental results/e4000_MountainCar__compare.xlsx
@@ -617,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>161.7379188537598</v>
+        <v>196.4693069458008</v>
       </c>
       <c r="N2">
-        <v>161.7379188537598</v>
+        <v>196.4693069458008</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -658,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="L3">
-        <v>10.99872589111328</v>
+        <v>12.91227340698242</v>
       </c>
       <c r="M3">
-        <v>1.435995101928711</v>
+        <v>1.000165939331055</v>
       </c>
       <c r="N3">
-        <v>12.43472099304199</v>
+        <v>13.91243934631348</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>89.58125114440918</v>
+        <v>87.33916282653809</v>
       </c>
       <c r="N4">
-        <v>89.58125114440918</v>
+        <v>87.33916282653809</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -746,13 +746,13 @@
         <v>4</v>
       </c>
       <c r="L5">
-        <v>10.7722282409668</v>
+        <v>11.23666763305664</v>
       </c>
       <c r="M5">
-        <v>8.771657943725586</v>
+        <v>8.483409881591797</v>
       </c>
       <c r="N5">
-        <v>19.54388618469238</v>
+        <v>19.72007751464844</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -790,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>26.75390243530273</v>
+        <v>43.02644729614258</v>
       </c>
       <c r="N6">
-        <v>26.75390243530273</v>
+        <v>43.02644729614258</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -831,13 +831,13 @@
         <v>4</v>
       </c>
       <c r="L7">
-        <v>13.48543167114258</v>
+        <v>15.72537422180176</v>
       </c>
       <c r="M7">
-        <v>27.68182754516602</v>
+        <v>33.83684158325195</v>
       </c>
       <c r="N7">
-        <v>41.16725921630859</v>
+        <v>49.56221580505371</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>25.00724792480469</v>
+        <v>22.54891395568848</v>
       </c>
       <c r="N8">
-        <v>25.00724792480469</v>
+        <v>22.54891395568848</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -919,13 +919,13 @@
         <v>4</v>
       </c>
       <c r="L9">
-        <v>13.0002498626709</v>
+        <v>13.29207420349121</v>
       </c>
       <c r="M9">
-        <v>31.6774845123291</v>
+        <v>34.47532653808594</v>
       </c>
       <c r="N9">
-        <v>44.677734375</v>
+        <v>47.76740074157715</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -966,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.8645076751709</v>
+        <v>31.13937377929688</v>
       </c>
       <c r="N10">
-        <v>23.8645076751709</v>
+        <v>31.13937377929688</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1007,13 +1007,13 @@
         <v>4</v>
       </c>
       <c r="L11">
-        <v>13.1690502166748</v>
+        <v>17.00520515441895</v>
       </c>
       <c r="M11">
-        <v>21.0881233215332</v>
+        <v>23.11038970947266</v>
       </c>
       <c r="N11">
-        <v>34.25717353820801</v>
+        <v>40.1155948638916</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>166.1839485168457</v>
+        <v>181.0293197631836</v>
       </c>
       <c r="N12">
-        <v>166.1839485168457</v>
+        <v>181.0293197631836</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1095,13 +1095,13 @@
         <v>4</v>
       </c>
       <c r="L13">
-        <v>12.90678977966309</v>
+        <v>15.99931716918945</v>
       </c>
       <c r="M13">
-        <v>3.999710083007812</v>
+        <v>5.002737045288086</v>
       </c>
       <c r="N13">
-        <v>16.9064998626709</v>
+        <v>21.00205421447754</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>152.4362564086914</v>
+        <v>152.1449089050293</v>
       </c>
       <c r="N14">
-        <v>152.4362564086914</v>
+        <v>152.1449089050293</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1180,13 +1180,13 @@
         <v>4</v>
       </c>
       <c r="L15">
-        <v>13.01765441894531</v>
+        <v>17.00162887573242</v>
       </c>
       <c r="M15">
-        <v>6.966114044189453</v>
+        <v>9.126186370849609</v>
       </c>
       <c r="N15">
-        <v>19.98376846313477</v>
+        <v>26.12781524658203</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>147.6876735687256</v>
+        <v>166.4648056030273</v>
       </c>
       <c r="N16">
-        <v>147.6876735687256</v>
+        <v>166.4648056030273</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1265,13 +1265,13 @@
         <v>4</v>
       </c>
       <c r="L17">
-        <v>12.16387748718262</v>
+        <v>13.00358772277832</v>
       </c>
       <c r="M17">
-        <v>11.0018253326416</v>
+        <v>11.5208625793457</v>
       </c>
       <c r="N17">
-        <v>23.16570281982422</v>
+        <v>24.52445030212402</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>145.3361511230469</v>
+        <v>151.0894298553467</v>
       </c>
       <c r="N18">
-        <v>145.3361511230469</v>
+        <v>151.0894298553467</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1350,13 +1350,13 @@
         <v>4</v>
       </c>
       <c r="L19">
-        <v>12.00175285339355</v>
+        <v>15.99931716918945</v>
       </c>
       <c r="M19">
-        <v>11.00015640258789</v>
+        <v>16.00003242492676</v>
       </c>
       <c r="N19">
-        <v>23.00190925598145</v>
+        <v>31.99934959411621</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>137.1634006500244</v>
+        <v>143.2294845581055</v>
       </c>
       <c r="N20">
-        <v>137.1634006500244</v>
+        <v>143.2294845581055</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1435,13 +1435,13 @@
         <v>4</v>
       </c>
       <c r="L21">
-        <v>12.01367378234863</v>
+        <v>17.45057106018066</v>
       </c>
       <c r="M21">
-        <v>14.984130859375</v>
+        <v>17.08507537841797</v>
       </c>
       <c r="N21">
-        <v>26.99780464172363</v>
+        <v>34.53564643859863</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>161.9107723236084</v>
+        <v>178.013801574707</v>
       </c>
       <c r="N22">
-        <v>161.9107723236084</v>
+        <v>178.013801574707</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1523,13 +1523,13 @@
         <v>4</v>
       </c>
       <c r="L23">
-        <v>13.99993896484375</v>
+        <v>15.99764823913574</v>
       </c>
       <c r="M23">
-        <v>5.999326705932617</v>
+        <v>5.003929138183594</v>
       </c>
       <c r="N23">
-        <v>19.99926567077637</v>
+        <v>21.00157737731934</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>148.6074924468994</v>
+        <v>155.9321880340576</v>
       </c>
       <c r="N24">
-        <v>148.6074924468994</v>
+        <v>155.9321880340576</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1608,13 +1608,13 @@
         <v>4</v>
       </c>
       <c r="L25">
-        <v>12.00413703918457</v>
+        <v>14.99772071838379</v>
       </c>
       <c r="M25">
-        <v>7.997989654541016</v>
+        <v>10.00022888183594</v>
       </c>
       <c r="N25">
-        <v>20.00212669372559</v>
+        <v>24.99794960021973</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>150.6404876708984</v>
+        <v>163.7921333312988</v>
       </c>
       <c r="N26">
-        <v>150.6404876708984</v>
+        <v>163.7921333312988</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1693,13 +1693,13 @@
         <v>4</v>
       </c>
       <c r="L27">
-        <v>12.50910758972168</v>
+        <v>14.99509811401367</v>
       </c>
       <c r="M27">
-        <v>9.999513626098633</v>
+        <v>14.51945304870605</v>
       </c>
       <c r="N27">
-        <v>22.50862121582031</v>
+        <v>29.51455116271973</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>139.4956111907959</v>
+        <v>149.0061283111572</v>
       </c>
       <c r="N28">
-        <v>139.4956111907959</v>
+        <v>149.0061283111572</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1778,13 +1778,13 @@
         <v>4</v>
       </c>
       <c r="L29">
-        <v>12.0542049407959</v>
+        <v>16.99948310852051</v>
       </c>
       <c r="M29">
-        <v>10.99967956542969</v>
+        <v>17.99893379211426</v>
       </c>
       <c r="N29">
-        <v>23.05388450622559</v>
+        <v>34.99841690063477</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1822,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>16.4344310760498</v>
+        <v>15.66338539123535</v>
       </c>
       <c r="N30">
-        <v>16.4344310760498</v>
+        <v>15.66338539123535</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1863,13 +1863,13 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>12.18414306640625</v>
+        <v>12.20321655273438</v>
       </c>
       <c r="M31">
-        <v>11.50608062744141</v>
+        <v>11.9774341583252</v>
       </c>
       <c r="N31">
-        <v>23.69022369384766</v>
+        <v>24.18065071105957</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>170.2415943145752</v>
+        <v>200.8061408996582</v>
       </c>
       <c r="N32">
-        <v>170.2415943145752</v>
+        <v>200.8061408996582</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1948,13 +1948,13 @@
         <v>4</v>
       </c>
       <c r="L33">
-        <v>9.996175765991211</v>
+        <v>11.00373268127441</v>
       </c>
       <c r="M33">
-        <v>2.001285552978516</v>
+        <v>2.001523971557617</v>
       </c>
       <c r="N33">
-        <v>11.99746131896973</v>
+        <v>13.00525665283203</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>78.125</v>
+        <v>84.57136154174805</v>
       </c>
       <c r="N34">
-        <v>78.125</v>
+        <v>84.57136154174805</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2036,13 +2036,13 @@
         <v>4</v>
       </c>
       <c r="L35">
-        <v>10.70690155029297</v>
+        <v>13.5955810546875</v>
       </c>
       <c r="M35">
-        <v>8.998870849609375</v>
+        <v>8.976936340332031</v>
       </c>
       <c r="N35">
-        <v>19.70577239990234</v>
+        <v>22.57251739501953</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2080,10 +2080,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>29.5259952545166</v>
+        <v>40.14492034912109</v>
       </c>
       <c r="N36">
-        <v>29.5259952545166</v>
+        <v>40.14492034912109</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2121,13 +2121,13 @@
         <v>4</v>
       </c>
       <c r="L37">
-        <v>12.90297508239746</v>
+        <v>16.99924468994141</v>
       </c>
       <c r="M37">
-        <v>26.63230895996094</v>
+        <v>35.54964065551758</v>
       </c>
       <c r="N37">
-        <v>39.5352840423584</v>
+        <v>52.54888534545898</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>20.45822143554688</v>
+        <v>23.28968048095703</v>
       </c>
       <c r="N38">
-        <v>20.45822143554688</v>
+        <v>23.28968048095703</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2209,13 +2209,13 @@
         <v>4</v>
       </c>
       <c r="L39">
-        <v>11.97147369384766</v>
+        <v>13.50522041320801</v>
       </c>
       <c r="M39">
-        <v>30.73883056640625</v>
+        <v>33.76913070678711</v>
       </c>
       <c r="N39">
-        <v>42.71030426025391</v>
+        <v>47.27435111999512</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>28.02252769470215</v>
+        <v>37.36615180969238</v>
       </c>
       <c r="N40">
-        <v>28.02252769470215</v>
+        <v>37.36615180969238</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2294,13 +2294,13 @@
         <v>2</v>
       </c>
       <c r="L41">
-        <v>13.11349868774414</v>
+        <v>17.14825630187988</v>
       </c>
       <c r="M41">
-        <v>0.9996891021728516</v>
+        <v>3.016471862792969</v>
       </c>
       <c r="N41">
-        <v>14.11318778991699</v>
+        <v>20.16472816467285</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2338,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>151.7264842987061</v>
+        <v>171.2734699249268</v>
       </c>
       <c r="N42">
-        <v>151.7264842987061</v>
+        <v>171.2734699249268</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2379,13 +2379,13 @@
         <v>2</v>
       </c>
       <c r="L43">
-        <v>11.00015640258789</v>
+        <v>16.00289344787598</v>
       </c>
       <c r="M43">
-        <v>1.505136489868164</v>
+        <v>2.997398376464844</v>
       </c>
       <c r="N43">
-        <v>12.50529289245605</v>
+        <v>19.00029182434082</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2426,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>83.65464210510254</v>
+        <v>83.77218246459961</v>
       </c>
       <c r="N44">
-        <v>83.65464210510254</v>
+        <v>83.77218246459961</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2467,13 +2467,13 @@
         <v>2</v>
       </c>
       <c r="L45">
-        <v>11.98601722717285</v>
+        <v>12.48741149902344</v>
       </c>
       <c r="M45">
-        <v>5.997896194458008</v>
+        <v>4.999160766601562</v>
       </c>
       <c r="N45">
-        <v>17.98391342163086</v>
+        <v>17.486572265625</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2511,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>32.50241279602051</v>
+        <v>35.99858283996582</v>
       </c>
       <c r="N46">
-        <v>32.50241279602051</v>
+        <v>35.99858283996582</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2552,13 +2552,13 @@
         <v>4</v>
       </c>
       <c r="L47">
-        <v>13.99970054626465</v>
+        <v>16.50667190551758</v>
       </c>
       <c r="M47">
-        <v>28.00130844116211</v>
+        <v>32.58776664733887</v>
       </c>
       <c r="N47">
-        <v>42.00100898742676</v>
+        <v>49.09443855285645</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>23.37479591369629</v>
+        <v>24.54280853271484</v>
       </c>
       <c r="N48">
-        <v>23.37479591369629</v>
+        <v>24.54280853271484</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2640,13 +2640,13 @@
         <v>4</v>
       </c>
       <c r="L49">
-        <v>12.99738883972168</v>
+        <v>12.80641555786133</v>
       </c>
       <c r="M49">
-        <v>32.39560127258301</v>
+        <v>33.68997573852539</v>
       </c>
       <c r="N49">
-        <v>45.39299011230469</v>
+        <v>46.49639129638672</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>15.89822769165039</v>
+        <v>20.50876617431641</v>
       </c>
       <c r="N50">
-        <v>15.89822769165039</v>
+        <v>20.50876617431641</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2725,13 +2725,13 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <v>11.99722290039062</v>
+        <v>17.64607429504395</v>
       </c>
       <c r="M51">
-        <v>0.9968280792236328</v>
+        <v>1.000881195068359</v>
       </c>
       <c r="N51">
-        <v>12.99405097961426</v>
+        <v>18.6469554901123</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>116.9569492340088</v>
+        <v>120.7025051116943</v>
       </c>
       <c r="N52">
-        <v>116.9569492340088</v>
+        <v>120.7025051116943</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2810,13 +2810,13 @@
         <v>2</v>
       </c>
       <c r="L53">
-        <v>10.99872589111328</v>
+        <v>14.9996280670166</v>
       </c>
       <c r="M53">
-        <v>1.999378204345703</v>
+        <v>2.999782562255859</v>
       </c>
       <c r="N53">
-        <v>12.99810409545898</v>
+        <v>17.99941062927246</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>39.64900970458984</v>
+        <v>48.39181900024414</v>
       </c>
       <c r="N54">
-        <v>39.64900970458984</v>
+        <v>48.39181900024414</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2898,13 +2898,13 @@
         <v>2</v>
       </c>
       <c r="L55">
-        <v>13.24629783630371</v>
+        <v>11.8410587310791</v>
       </c>
       <c r="M55">
-        <v>7.999658584594727</v>
+        <v>7.415294647216797</v>
       </c>
       <c r="N55">
-        <v>21.24595642089844</v>
+        <v>19.2563533782959</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2942,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>19.34218406677246</v>
+        <v>20.49899101257324</v>
       </c>
       <c r="N56">
-        <v>19.34218406677246</v>
+        <v>20.49899101257324</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2983,13 +2983,13 @@
         <v>2</v>
       </c>
       <c r="L57">
-        <v>12.03656196594238</v>
+        <v>14.9986743927002</v>
       </c>
       <c r="M57">
-        <v>5.906343460083008</v>
+        <v>10.99944114685059</v>
       </c>
       <c r="N57">
-        <v>17.94290542602539</v>
+        <v>25.99811553955078</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3027,10 +3027,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>19.79565620422363</v>
+        <v>23.11444282531738</v>
       </c>
       <c r="N58">
-        <v>19.79565620422363</v>
+        <v>23.11444282531738</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3068,13 +3068,13 @@
         <v>1</v>
       </c>
       <c r="L59">
-        <v>13.5035514831543</v>
+        <v>13.05723190307617</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>1.098871231079102</v>
       </c>
       <c r="N59">
-        <v>13.5035514831543</v>
+        <v>14.15610313415527</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3112,10 +3112,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>20.15471458435059</v>
+        <v>20.1573371887207</v>
       </c>
       <c r="N60">
-        <v>20.15471458435059</v>
+        <v>20.1573371887207</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3153,13 +3153,13 @@
         <v>2</v>
       </c>
       <c r="L61">
-        <v>12.01701164245605</v>
+        <v>13.55361938476562</v>
       </c>
       <c r="M61">
-        <v>2.005577087402344</v>
+        <v>2.000331878662109</v>
       </c>
       <c r="N61">
-        <v>14.0225887298584</v>
+        <v>15.55395126342773</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3197,10 +3197,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>128.9970874786377</v>
+        <v>137.8898620605469</v>
       </c>
       <c r="N62">
-        <v>128.9970874786377</v>
+        <v>137.8898620605469</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3238,13 +3238,13 @@
         <v>2</v>
       </c>
       <c r="L63">
-        <v>11.65437698364258</v>
+        <v>12.91537284851074</v>
       </c>
       <c r="M63">
-        <v>1.001119613647461</v>
+        <v>1.999855041503906</v>
       </c>
       <c r="N63">
-        <v>12.65549659729004</v>
+        <v>14.91522789001465</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3285,10 +3285,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>38.88154029846191</v>
+        <v>45.40443420410156</v>
       </c>
       <c r="N64">
-        <v>38.88154029846191</v>
+        <v>45.40443420410156</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3326,13 +3326,13 @@
         <v>2</v>
       </c>
       <c r="L65">
-        <v>11.99817657470703</v>
+        <v>10.99729537963867</v>
       </c>
       <c r="M65">
-        <v>7.000923156738281</v>
+        <v>9.268283843994141</v>
       </c>
       <c r="N65">
-        <v>18.99909973144531</v>
+        <v>20.26557922363281</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3370,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>21.32534980773926</v>
+        <v>22.26972579956055</v>
       </c>
       <c r="N66">
-        <v>21.32534980773926</v>
+        <v>22.26972579956055</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3411,13 +3411,13 @@
         <v>2</v>
       </c>
       <c r="L67">
-        <v>12.63260841369629</v>
+        <v>12.00032234191895</v>
       </c>
       <c r="M67">
-        <v>7.976055145263672</v>
+        <v>6.981134414672852</v>
       </c>
       <c r="N67">
-        <v>20.60866355895996</v>
+        <v>18.9814567565918</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3455,10 +3455,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>17.82560348510742</v>
+        <v>22.57323265075684</v>
       </c>
       <c r="N68">
-        <v>17.82560348510742</v>
+        <v>22.57323265075684</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3496,13 +3496,13 @@
         <v>2</v>
       </c>
       <c r="L69">
-        <v>13.04531097412109</v>
+        <v>17.71235466003418</v>
       </c>
       <c r="M69">
-        <v>9.811639785766602</v>
+        <v>11.20710372924805</v>
       </c>
       <c r="N69">
-        <v>22.8569507598877</v>
+        <v>28.91945838928223</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3540,10 +3540,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>18.23043823242188</v>
+        <v>17.88687705993652</v>
       </c>
       <c r="N70">
-        <v>18.23043823242188</v>
+        <v>17.88687705993652</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3581,13 +3581,13 @@
         <v>3</v>
       </c>
       <c r="L71">
-        <v>13.87739181518555</v>
+        <v>14.21594619750977</v>
       </c>
       <c r="M71">
-        <v>30.28321266174316</v>
+        <v>31.85105323791504</v>
       </c>
       <c r="N71">
-        <v>44.16060447692871</v>
+        <v>46.0669994354248</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3625,10 +3625,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>152.108907699585</v>
+        <v>163.0315780639648</v>
       </c>
       <c r="N72">
-        <v>152.108907699585</v>
+        <v>163.0315780639648</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3666,13 +3666,13 @@
         <v>3</v>
       </c>
       <c r="L73">
-        <v>11.00063323974609</v>
+        <v>14.00542259216309</v>
       </c>
       <c r="M73">
-        <v>2.999067306518555</v>
+        <v>3.994464874267578</v>
       </c>
       <c r="N73">
-        <v>13.99970054626465</v>
+        <v>17.99988746643066</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3710,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>141.5901184082031</v>
+        <v>160.1495742797852</v>
       </c>
       <c r="N74">
-        <v>141.5901184082031</v>
+        <v>160.1495742797852</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3751,13 +3751,13 @@
         <v>3</v>
       </c>
       <c r="L75">
-        <v>9.97161865234375</v>
+        <v>14.99605178833008</v>
       </c>
       <c r="M75">
-        <v>7.000923156738281</v>
+        <v>8.999347686767578</v>
       </c>
       <c r="N75">
-        <v>16.97254180908203</v>
+        <v>23.99539947509766</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3795,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>139.8477554321289</v>
+        <v>146.1648941040039</v>
       </c>
       <c r="N76">
-        <v>139.8477554321289</v>
+        <v>146.1648941040039</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3836,13 +3836,13 @@
         <v>3</v>
       </c>
       <c r="L77">
-        <v>11.89231872558594</v>
+        <v>14.99390602111816</v>
       </c>
       <c r="M77">
-        <v>6.975412368774414</v>
+        <v>11.0015869140625</v>
       </c>
       <c r="N77">
-        <v>18.86773109436035</v>
+        <v>25.99549293518066</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3880,10 +3880,10 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>133.6212158203125</v>
+        <v>144.8137760162354</v>
       </c>
       <c r="N78">
-        <v>133.6212158203125</v>
+        <v>144.8137760162354</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3921,13 +3921,13 @@
         <v>3</v>
       </c>
       <c r="L79">
-        <v>13.39125633239746</v>
+        <v>16.9985294342041</v>
       </c>
       <c r="M79">
-        <v>8.172273635864258</v>
+        <v>13.00287246704102</v>
       </c>
       <c r="N79">
-        <v>21.56352996826172</v>
+        <v>30.00140190124512</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3965,10 +3965,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>131.1380863189697</v>
+        <v>142.0745849609375</v>
       </c>
       <c r="N80">
-        <v>131.1380863189697</v>
+        <v>142.0745849609375</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4006,13 +4006,13 @@
         <v>2</v>
       </c>
       <c r="L81">
-        <v>10.99848747253418</v>
+        <v>17.18688011169434</v>
       </c>
       <c r="M81">
-        <v>1.762628555297852</v>
+        <v>1.999139785766602</v>
       </c>
       <c r="N81">
-        <v>12.76111602783203</v>
+        <v>19.18601989746094</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4053,10 +4053,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
       <c r="N82">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4094,13 +4094,13 @@
         <v>2</v>
       </c>
       <c r="L83">
-        <v>11.0015869140625</v>
+        <v>17.00234413146973</v>
       </c>
       <c r="M83">
-        <v>2.001285552978516</v>
+        <v>0.9987354278564453</v>
       </c>
       <c r="N83">
-        <v>13.00287246704102</v>
+        <v>18.00107955932617</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>85.10971069335938</v>
+        <v>86.29393577575684</v>
       </c>
       <c r="N84">
-        <v>85.10971069335938</v>
+        <v>86.29393577575684</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4182,13 +4182,13 @@
         <v>2</v>
       </c>
       <c r="L85">
-        <v>11.31510734558105</v>
+        <v>12.62307167053223</v>
       </c>
       <c r="M85">
-        <v>6.000757217407227</v>
+        <v>5.001306533813477</v>
       </c>
       <c r="N85">
-        <v>17.31586456298828</v>
+        <v>17.6243782043457</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>29.37841415405273</v>
+        <v>40.28654098510742</v>
       </c>
       <c r="N86">
-        <v>29.37841415405273</v>
+        <v>40.28654098510742</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4267,13 +4267,13 @@
         <v>4</v>
       </c>
       <c r="L87">
-        <v>13.02719116210938</v>
+        <v>14.99843597412109</v>
       </c>
       <c r="M87">
-        <v>26.97062492370605</v>
+        <v>32.99379348754883</v>
       </c>
       <c r="N87">
-        <v>39.99781608581543</v>
+        <v>47.99222946166992</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4314,10 +4314,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>25.17080307006836</v>
+        <v>25.86770057678223</v>
       </c>
       <c r="N88">
-        <v>25.17080307006836</v>
+        <v>25.86770057678223</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4355,13 +4355,13 @@
         <v>4</v>
       </c>
       <c r="L89">
-        <v>11.74259185791016</v>
+        <v>13.02051544189453</v>
       </c>
       <c r="M89">
-        <v>31.52346611022949</v>
+        <v>33.7529182434082</v>
       </c>
       <c r="N89">
-        <v>43.26605796813965</v>
+        <v>46.77343368530273</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4402,10 +4402,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>23.99969100952148</v>
+        <v>31.1739444732666</v>
       </c>
       <c r="N90">
-        <v>23.99969100952148</v>
+        <v>31.1739444732666</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4443,13 +4443,13 @@
         <v>2</v>
       </c>
       <c r="L91">
-        <v>12.725830078125</v>
+        <v>16.0377025604248</v>
       </c>
       <c r="M91">
-        <v>8.98289680480957</v>
+        <v>10.96773147583008</v>
       </c>
       <c r="N91">
-        <v>21.70872688293457</v>
+        <v>27.00543403625488</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4487,10 +4487,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>117.6011562347412</v>
+        <v>124.1729259490967</v>
       </c>
       <c r="N92">
-        <v>117.6011562347412</v>
+        <v>124.1729259490967</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4528,13 +4528,13 @@
         <v>3</v>
       </c>
       <c r="L93">
-        <v>11.33632659912109</v>
+        <v>15.77115058898926</v>
       </c>
       <c r="M93">
-        <v>2.001523971557617</v>
+        <v>3.963708877563477</v>
       </c>
       <c r="N93">
-        <v>13.33785057067871</v>
+        <v>19.73485946655273</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4575,10 +4575,10 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>38.27643394470215</v>
+        <v>43.94793510437012</v>
       </c>
       <c r="N94">
-        <v>38.27643394470215</v>
+        <v>43.94793510437012</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4616,13 +4616,13 @@
         <v>3</v>
       </c>
       <c r="L95">
-        <v>12.00056076049805</v>
+        <v>10.96153259277344</v>
       </c>
       <c r="M95">
-        <v>11.99913024902344</v>
+        <v>9.738683700561523</v>
       </c>
       <c r="N95">
-        <v>23.99969100952148</v>
+        <v>20.70021629333496</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4660,10 +4660,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>22.10760116577148</v>
+        <v>20.00689506530762</v>
       </c>
       <c r="N96">
-        <v>22.10760116577148</v>
+        <v>20.00689506530762</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4701,13 +4701,13 @@
         <v>3</v>
       </c>
       <c r="L97">
-        <v>10.84446907043457</v>
+        <v>23.73361587524414</v>
       </c>
       <c r="M97">
-        <v>9.198665618896484</v>
+        <v>18.3260440826416</v>
       </c>
       <c r="N97">
-        <v>20.04313468933105</v>
+        <v>42.05965995788574</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4745,10 +4745,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>20.0040340423584</v>
+        <v>19.99974250793457</v>
       </c>
       <c r="N98">
-        <v>20.0040340423584</v>
+        <v>19.99974250793457</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4786,13 +4786,13 @@
         <v>2</v>
       </c>
       <c r="L99">
-        <v>14.49728012084961</v>
+        <v>15.03849029541016</v>
       </c>
       <c r="M99">
-        <v>3.000974655151367</v>
+        <v>2.978324890136719</v>
       </c>
       <c r="N99">
-        <v>17.49825477600098</v>
+        <v>18.01681518554688</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4830,10 +4830,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>17.3492431640625</v>
+        <v>16.94989204406738</v>
       </c>
       <c r="N100">
-        <v>17.3492431640625</v>
+        <v>16.94989204406738</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4871,13 +4871,13 @@
         <v>2</v>
       </c>
       <c r="L101">
-        <v>11.94977760314941</v>
+        <v>15.53487777709961</v>
       </c>
       <c r="M101">
-        <v>13.32879066467285</v>
+        <v>20.99490165710449</v>
       </c>
       <c r="N101">
-        <v>25.27856826782227</v>
+        <v>36.5297794342041</v>
       </c>
     </row>
   </sheetData>
@@ -4975,13 +4975,13 @@
         <v>4</v>
       </c>
       <c r="L2">
-        <v>10.99872589111328</v>
+        <v>12.91227340698242</v>
       </c>
       <c r="M2">
-        <v>1.435995101928711</v>
+        <v>1.000165939331055</v>
       </c>
       <c r="N2">
-        <v>12.43472099304199</v>
+        <v>13.91243934631348</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -5019,13 +5019,13 @@
         <v>4</v>
       </c>
       <c r="L3">
-        <v>10.99872589111328</v>
+        <v>12.91227340698242</v>
       </c>
       <c r="M3">
-        <v>1.435995101928711</v>
+        <v>1.000165939331055</v>
       </c>
       <c r="N3">
-        <v>12.43472099304199</v>
+        <v>13.91243934631348</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5063,13 +5063,13 @@
         <v>4</v>
       </c>
       <c r="L4">
-        <v>10.99872589111328</v>
+        <v>12.91227340698242</v>
       </c>
       <c r="M4">
-        <v>1.435995101928711</v>
+        <v>1.000165939331055</v>
       </c>
       <c r="N4">
-        <v>12.43472099304199</v>
+        <v>13.91243934631348</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -5107,13 +5107,13 @@
         <v>4</v>
       </c>
       <c r="L5">
-        <v>10.99872589111328</v>
+        <v>12.91227340698242</v>
       </c>
       <c r="M5">
-        <v>1.435995101928711</v>
+        <v>1.000165939331055</v>
       </c>
       <c r="N5">
-        <v>12.43472099304199</v>
+        <v>13.91243934631348</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -5154,10 +5154,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>89.58125114440918</v>
+        <v>87.33916282653809</v>
       </c>
       <c r="N6">
-        <v>89.58125114440918</v>
+        <v>87.33916282653809</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -5198,10 +5198,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>89.58125114440918</v>
+        <v>87.33916282653809</v>
       </c>
       <c r="N7">
-        <v>89.58125114440918</v>
+        <v>87.33916282653809</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5239,13 +5239,13 @@
         <v>4</v>
       </c>
       <c r="L8">
-        <v>10.7722282409668</v>
+        <v>11.23666763305664</v>
       </c>
       <c r="M8">
-        <v>8.771657943725586</v>
+        <v>8.483409881591797</v>
       </c>
       <c r="N8">
-        <v>19.54388618469238</v>
+        <v>19.72007751464844</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -5283,13 +5283,13 @@
         <v>4</v>
       </c>
       <c r="L9">
-        <v>10.7722282409668</v>
+        <v>11.23666763305664</v>
       </c>
       <c r="M9">
-        <v>8.771657943725586</v>
+        <v>8.483409881591797</v>
       </c>
       <c r="N9">
-        <v>19.54388618469238</v>
+        <v>19.72007751464844</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -5327,13 +5327,13 @@
         <v>4</v>
       </c>
       <c r="L10">
-        <v>10.7722282409668</v>
+        <v>11.23666763305664</v>
       </c>
       <c r="M10">
-        <v>8.771657943725586</v>
+        <v>8.483409881591797</v>
       </c>
       <c r="N10">
-        <v>19.54388618469238</v>
+        <v>19.72007751464844</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -5371,13 +5371,13 @@
         <v>4</v>
       </c>
       <c r="L11">
-        <v>10.7722282409668</v>
+        <v>11.23666763305664</v>
       </c>
       <c r="M11">
-        <v>8.771657943725586</v>
+        <v>8.483409881591797</v>
       </c>
       <c r="N11">
-        <v>19.54388618469238</v>
+        <v>19.72007751464844</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -5415,13 +5415,13 @@
         <v>4</v>
       </c>
       <c r="L12">
-        <v>13.48543167114258</v>
+        <v>15.72537422180176</v>
       </c>
       <c r="M12">
-        <v>27.68182754516602</v>
+        <v>33.83684158325195</v>
       </c>
       <c r="N12">
-        <v>41.16725921630859</v>
+        <v>49.56221580505371</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5459,13 +5459,13 @@
         <v>4</v>
       </c>
       <c r="L13">
-        <v>13.48543167114258</v>
+        <v>15.72537422180176</v>
       </c>
       <c r="M13">
-        <v>27.68182754516602</v>
+        <v>33.83684158325195</v>
       </c>
       <c r="N13">
-        <v>41.16725921630859</v>
+        <v>49.56221580505371</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -5503,13 +5503,13 @@
         <v>4</v>
       </c>
       <c r="L14">
-        <v>13.48543167114258</v>
+        <v>15.72537422180176</v>
       </c>
       <c r="M14">
-        <v>27.68182754516602</v>
+        <v>33.83684158325195</v>
       </c>
       <c r="N14">
-        <v>41.16725921630859</v>
+        <v>49.56221580505371</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -5547,13 +5547,13 @@
         <v>4</v>
       </c>
       <c r="L15">
-        <v>13.48543167114258</v>
+        <v>15.72537422180176</v>
       </c>
       <c r="M15">
-        <v>27.68182754516602</v>
+        <v>33.83684158325195</v>
       </c>
       <c r="N15">
-        <v>41.16725921630859</v>
+        <v>49.56221580505371</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -5594,10 +5594,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>25.00724792480469</v>
+        <v>22.54891395568848</v>
       </c>
       <c r="N16">
-        <v>25.00724792480469</v>
+        <v>22.54891395568848</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -5635,13 +5635,13 @@
         <v>4</v>
       </c>
       <c r="L17">
-        <v>13.0002498626709</v>
+        <v>13.29207420349121</v>
       </c>
       <c r="M17">
-        <v>31.6774845123291</v>
+        <v>34.47532653808594</v>
       </c>
       <c r="N17">
-        <v>44.677734375</v>
+        <v>47.76740074157715</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -5679,13 +5679,13 @@
         <v>4</v>
       </c>
       <c r="L18">
-        <v>13.0002498626709</v>
+        <v>13.29207420349121</v>
       </c>
       <c r="M18">
-        <v>31.6774845123291</v>
+        <v>34.47532653808594</v>
       </c>
       <c r="N18">
-        <v>44.677734375</v>
+        <v>47.76740074157715</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -5723,13 +5723,13 @@
         <v>4</v>
       </c>
       <c r="L19">
-        <v>13.0002498626709</v>
+        <v>13.29207420349121</v>
       </c>
       <c r="M19">
-        <v>31.6774845123291</v>
+        <v>34.47532653808594</v>
       </c>
       <c r="N19">
-        <v>44.677734375</v>
+        <v>47.76740074157715</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -5767,13 +5767,13 @@
         <v>4</v>
       </c>
       <c r="L20">
-        <v>13.0002498626709</v>
+        <v>13.29207420349121</v>
       </c>
       <c r="M20">
-        <v>31.6774845123291</v>
+        <v>34.47532653808594</v>
       </c>
       <c r="N20">
-        <v>44.677734375</v>
+        <v>47.76740074157715</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -5814,10 +5814,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.8645076751709</v>
+        <v>31.13937377929688</v>
       </c>
       <c r="N21">
-        <v>23.8645076751709</v>
+        <v>31.13937377929688</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -5855,13 +5855,13 @@
         <v>4</v>
       </c>
       <c r="L22">
-        <v>13.1690502166748</v>
+        <v>17.00520515441895</v>
       </c>
       <c r="M22">
-        <v>21.0881233215332</v>
+        <v>23.11038970947266</v>
       </c>
       <c r="N22">
-        <v>34.25717353820801</v>
+        <v>40.1155948638916</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -5899,13 +5899,13 @@
         <v>4</v>
       </c>
       <c r="L23">
-        <v>13.1690502166748</v>
+        <v>17.00520515441895</v>
       </c>
       <c r="M23">
-        <v>21.0881233215332</v>
+        <v>23.11038970947266</v>
       </c>
       <c r="N23">
-        <v>34.25717353820801</v>
+        <v>40.1155948638916</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -5943,13 +5943,13 @@
         <v>4</v>
       </c>
       <c r="L24">
-        <v>13.1690502166748</v>
+        <v>17.00520515441895</v>
       </c>
       <c r="M24">
-        <v>21.0881233215332</v>
+        <v>23.11038970947266</v>
       </c>
       <c r="N24">
-        <v>34.25717353820801</v>
+        <v>40.1155948638916</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -5987,13 +5987,13 @@
         <v>4</v>
       </c>
       <c r="L25">
-        <v>13.1690502166748</v>
+        <v>17.00520515441895</v>
       </c>
       <c r="M25">
-        <v>21.0881233215332</v>
+        <v>23.11038970947266</v>
       </c>
       <c r="N25">
-        <v>34.25717353820801</v>
+        <v>40.1155948638916</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -6034,10 +6034,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>166.1839485168457</v>
+        <v>181.0293197631836</v>
       </c>
       <c r="N26">
-        <v>166.1839485168457</v>
+        <v>181.0293197631836</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -6078,10 +6078,10 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>166.1839485168457</v>
+        <v>181.0293197631836</v>
       </c>
       <c r="N27">
-        <v>166.1839485168457</v>
+        <v>181.0293197631836</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -6122,10 +6122,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>166.1839485168457</v>
+        <v>181.0293197631836</v>
       </c>
       <c r="N28">
-        <v>166.1839485168457</v>
+        <v>181.0293197631836</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -6163,13 +6163,13 @@
         <v>4</v>
       </c>
       <c r="L29">
-        <v>12.90678977966309</v>
+        <v>15.99931716918945</v>
       </c>
       <c r="M29">
-        <v>3.999710083007812</v>
+        <v>5.002737045288086</v>
       </c>
       <c r="N29">
-        <v>16.9064998626709</v>
+        <v>21.00205421447754</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -6207,13 +6207,13 @@
         <v>4</v>
       </c>
       <c r="L30">
-        <v>12.90678977966309</v>
+        <v>15.99931716918945</v>
       </c>
       <c r="M30">
-        <v>3.999710083007812</v>
+        <v>5.002737045288086</v>
       </c>
       <c r="N30">
-        <v>16.9064998626709</v>
+        <v>21.00205421447754</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -6251,13 +6251,13 @@
         <v>4</v>
       </c>
       <c r="L31">
-        <v>12.90678977966309</v>
+        <v>15.99931716918945</v>
       </c>
       <c r="M31">
-        <v>3.999710083007812</v>
+        <v>5.002737045288086</v>
       </c>
       <c r="N31">
-        <v>16.9064998626709</v>
+        <v>21.00205421447754</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -6295,13 +6295,13 @@
         <v>4</v>
       </c>
       <c r="L32">
-        <v>12.90678977966309</v>
+        <v>15.99931716918945</v>
       </c>
       <c r="M32">
-        <v>3.999710083007812</v>
+        <v>5.002737045288086</v>
       </c>
       <c r="N32">
-        <v>16.9064998626709</v>
+        <v>21.00205421447754</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -6339,13 +6339,13 @@
         <v>4</v>
       </c>
       <c r="L33">
-        <v>13.01765441894531</v>
+        <v>17.00162887573242</v>
       </c>
       <c r="M33">
-        <v>6.966114044189453</v>
+        <v>9.126186370849609</v>
       </c>
       <c r="N33">
-        <v>19.98376846313477</v>
+        <v>26.12781524658203</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -6383,13 +6383,13 @@
         <v>4</v>
       </c>
       <c r="L34">
-        <v>13.01765441894531</v>
+        <v>17.00162887573242</v>
       </c>
       <c r="M34">
-        <v>6.966114044189453</v>
+        <v>9.126186370849609</v>
       </c>
       <c r="N34">
-        <v>19.98376846313477</v>
+        <v>26.12781524658203</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -6427,13 +6427,13 @@
         <v>4</v>
       </c>
       <c r="L35">
-        <v>13.01765441894531</v>
+        <v>17.00162887573242</v>
       </c>
       <c r="M35">
-        <v>6.966114044189453</v>
+        <v>9.126186370849609</v>
       </c>
       <c r="N35">
-        <v>19.98376846313477</v>
+        <v>26.12781524658203</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -6471,13 +6471,13 @@
         <v>4</v>
       </c>
       <c r="L36">
-        <v>13.01765441894531</v>
+        <v>17.00162887573242</v>
       </c>
       <c r="M36">
-        <v>6.966114044189453</v>
+        <v>9.126186370849609</v>
       </c>
       <c r="N36">
-        <v>19.98376846313477</v>
+        <v>26.12781524658203</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -6515,13 +6515,13 @@
         <v>4</v>
       </c>
       <c r="L37">
-        <v>12.16387748718262</v>
+        <v>13.00358772277832</v>
       </c>
       <c r="M37">
-        <v>11.0018253326416</v>
+        <v>11.5208625793457</v>
       </c>
       <c r="N37">
-        <v>23.16570281982422</v>
+        <v>24.52445030212402</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -6559,13 +6559,13 @@
         <v>4</v>
       </c>
       <c r="L38">
-        <v>12.16387748718262</v>
+        <v>13.00358772277832</v>
       </c>
       <c r="M38">
-        <v>11.0018253326416</v>
+        <v>11.5208625793457</v>
       </c>
       <c r="N38">
-        <v>23.16570281982422</v>
+        <v>24.52445030212402</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -6603,13 +6603,13 @@
         <v>4</v>
       </c>
       <c r="L39">
-        <v>12.16387748718262</v>
+        <v>13.00358772277832</v>
       </c>
       <c r="M39">
-        <v>11.0018253326416</v>
+        <v>11.5208625793457</v>
       </c>
       <c r="N39">
-        <v>23.16570281982422</v>
+        <v>24.52445030212402</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -6647,13 +6647,13 @@
         <v>4</v>
       </c>
       <c r="L40">
-        <v>12.16387748718262</v>
+        <v>13.00358772277832</v>
       </c>
       <c r="M40">
-        <v>11.0018253326416</v>
+        <v>11.5208625793457</v>
       </c>
       <c r="N40">
-        <v>23.16570281982422</v>
+        <v>24.52445030212402</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -6691,13 +6691,13 @@
         <v>4</v>
       </c>
       <c r="L41">
-        <v>12.00175285339355</v>
+        <v>15.99931716918945</v>
       </c>
       <c r="M41">
-        <v>11.00015640258789</v>
+        <v>16.00003242492676</v>
       </c>
       <c r="N41">
-        <v>23.00190925598145</v>
+        <v>31.99934959411621</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -6735,13 +6735,13 @@
         <v>4</v>
       </c>
       <c r="L42">
-        <v>12.00175285339355</v>
+        <v>15.99931716918945</v>
       </c>
       <c r="M42">
-        <v>11.00015640258789</v>
+        <v>16.00003242492676</v>
       </c>
       <c r="N42">
-        <v>23.00190925598145</v>
+        <v>31.99934959411621</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -6779,13 +6779,13 @@
         <v>4</v>
       </c>
       <c r="L43">
-        <v>12.00175285339355</v>
+        <v>15.99931716918945</v>
       </c>
       <c r="M43">
-        <v>11.00015640258789</v>
+        <v>16.00003242492676</v>
       </c>
       <c r="N43">
-        <v>23.00190925598145</v>
+        <v>31.99934959411621</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -6823,13 +6823,13 @@
         <v>4</v>
       </c>
       <c r="L44">
-        <v>12.00175285339355</v>
+        <v>15.99931716918945</v>
       </c>
       <c r="M44">
-        <v>11.00015640258789</v>
+        <v>16.00003242492676</v>
       </c>
       <c r="N44">
-        <v>23.00190925598145</v>
+        <v>31.99934959411621</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -6867,13 +6867,13 @@
         <v>4</v>
       </c>
       <c r="L45">
-        <v>12.01367378234863</v>
+        <v>17.45057106018066</v>
       </c>
       <c r="M45">
-        <v>14.984130859375</v>
+        <v>17.08507537841797</v>
       </c>
       <c r="N45">
-        <v>26.99780464172363</v>
+        <v>34.53564643859863</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -6911,13 +6911,13 @@
         <v>4</v>
       </c>
       <c r="L46">
-        <v>12.01367378234863</v>
+        <v>17.45057106018066</v>
       </c>
       <c r="M46">
-        <v>14.984130859375</v>
+        <v>17.08507537841797</v>
       </c>
       <c r="N46">
-        <v>26.99780464172363</v>
+        <v>34.53564643859863</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -6955,13 +6955,13 @@
         <v>4</v>
       </c>
       <c r="L47">
-        <v>12.01367378234863</v>
+        <v>17.45057106018066</v>
       </c>
       <c r="M47">
-        <v>14.984130859375</v>
+        <v>17.08507537841797</v>
       </c>
       <c r="N47">
-        <v>26.99780464172363</v>
+        <v>34.53564643859863</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -6999,13 +6999,13 @@
         <v>4</v>
       </c>
       <c r="L48">
-        <v>12.01367378234863</v>
+        <v>17.45057106018066</v>
       </c>
       <c r="M48">
-        <v>14.984130859375</v>
+        <v>17.08507537841797</v>
       </c>
       <c r="N48">
-        <v>26.99780464172363</v>
+        <v>34.53564643859863</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -7046,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>161.9107723236084</v>
+        <v>178.013801574707</v>
       </c>
       <c r="N49">
-        <v>161.9107723236084</v>
+        <v>178.013801574707</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -7090,10 +7090,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>161.9107723236084</v>
+        <v>178.013801574707</v>
       </c>
       <c r="N50">
-        <v>161.9107723236084</v>
+        <v>178.013801574707</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -7134,10 +7134,10 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>161.9107723236084</v>
+        <v>178.013801574707</v>
       </c>
       <c r="N51">
-        <v>161.9107723236084</v>
+        <v>178.013801574707</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -7175,13 +7175,13 @@
         <v>4</v>
       </c>
       <c r="L52">
-        <v>13.99993896484375</v>
+        <v>15.99764823913574</v>
       </c>
       <c r="M52">
-        <v>5.999326705932617</v>
+        <v>5.003929138183594</v>
       </c>
       <c r="N52">
-        <v>19.99926567077637</v>
+        <v>21.00157737731934</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -7219,13 +7219,13 @@
         <v>4</v>
       </c>
       <c r="L53">
-        <v>13.99993896484375</v>
+        <v>15.99764823913574</v>
       </c>
       <c r="M53">
-        <v>5.999326705932617</v>
+        <v>5.003929138183594</v>
       </c>
       <c r="N53">
-        <v>19.99926567077637</v>
+        <v>21.00157737731934</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -7263,13 +7263,13 @@
         <v>4</v>
       </c>
       <c r="L54">
-        <v>13.99993896484375</v>
+        <v>15.99764823913574</v>
       </c>
       <c r="M54">
-        <v>5.999326705932617</v>
+        <v>5.003929138183594</v>
       </c>
       <c r="N54">
-        <v>19.99926567077637</v>
+        <v>21.00157737731934</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -7307,13 +7307,13 @@
         <v>4</v>
       </c>
       <c r="L55">
-        <v>13.99993896484375</v>
+        <v>15.99764823913574</v>
       </c>
       <c r="M55">
-        <v>5.999326705932617</v>
+        <v>5.003929138183594</v>
       </c>
       <c r="N55">
-        <v>19.99926567077637</v>
+        <v>21.00157737731934</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -7351,13 +7351,13 @@
         <v>4</v>
       </c>
       <c r="L56">
-        <v>12.00413703918457</v>
+        <v>14.99772071838379</v>
       </c>
       <c r="M56">
-        <v>7.997989654541016</v>
+        <v>10.00022888183594</v>
       </c>
       <c r="N56">
-        <v>20.00212669372559</v>
+        <v>24.99794960021973</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -7395,13 +7395,13 @@
         <v>4</v>
       </c>
       <c r="L57">
-        <v>12.00413703918457</v>
+        <v>14.99772071838379</v>
       </c>
       <c r="M57">
-        <v>7.997989654541016</v>
+        <v>10.00022888183594</v>
       </c>
       <c r="N57">
-        <v>20.00212669372559</v>
+        <v>24.99794960021973</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -7439,13 +7439,13 @@
         <v>4</v>
       </c>
       <c r="L58">
-        <v>12.00413703918457</v>
+        <v>14.99772071838379</v>
       </c>
       <c r="M58">
-        <v>7.997989654541016</v>
+        <v>10.00022888183594</v>
       </c>
       <c r="N58">
-        <v>20.00212669372559</v>
+        <v>24.99794960021973</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -7483,13 +7483,13 @@
         <v>4</v>
       </c>
       <c r="L59">
-        <v>12.00413703918457</v>
+        <v>14.99772071838379</v>
       </c>
       <c r="M59">
-        <v>7.997989654541016</v>
+        <v>10.00022888183594</v>
       </c>
       <c r="N59">
-        <v>20.00212669372559</v>
+        <v>24.99794960021973</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -7527,13 +7527,13 @@
         <v>4</v>
       </c>
       <c r="L60">
-        <v>12.50910758972168</v>
+        <v>14.99509811401367</v>
       </c>
       <c r="M60">
-        <v>9.999513626098633</v>
+        <v>14.51945304870605</v>
       </c>
       <c r="N60">
-        <v>22.50862121582031</v>
+        <v>29.51455116271973</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -7571,13 +7571,13 @@
         <v>4</v>
       </c>
       <c r="L61">
-        <v>12.50910758972168</v>
+        <v>14.99509811401367</v>
       </c>
       <c r="M61">
-        <v>9.999513626098633</v>
+        <v>14.51945304870605</v>
       </c>
       <c r="N61">
-        <v>22.50862121582031</v>
+        <v>29.51455116271973</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -7615,13 +7615,13 @@
         <v>4</v>
       </c>
       <c r="L62">
-        <v>12.50910758972168</v>
+        <v>14.99509811401367</v>
       </c>
       <c r="M62">
-        <v>9.999513626098633</v>
+        <v>14.51945304870605</v>
       </c>
       <c r="N62">
-        <v>22.50862121582031</v>
+        <v>29.51455116271973</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -7659,13 +7659,13 @@
         <v>4</v>
       </c>
       <c r="L63">
-        <v>12.50910758972168</v>
+        <v>14.99509811401367</v>
       </c>
       <c r="M63">
-        <v>9.999513626098633</v>
+        <v>14.51945304870605</v>
       </c>
       <c r="N63">
-        <v>22.50862121582031</v>
+        <v>29.51455116271973</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -7703,13 +7703,13 @@
         <v>4</v>
       </c>
       <c r="L64">
-        <v>12.0542049407959</v>
+        <v>16.99948310852051</v>
       </c>
       <c r="M64">
-        <v>10.99967956542969</v>
+        <v>17.99893379211426</v>
       </c>
       <c r="N64">
-        <v>23.05388450622559</v>
+        <v>34.99841690063477</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -7747,13 +7747,13 @@
         <v>4</v>
       </c>
       <c r="L65">
-        <v>12.0542049407959</v>
+        <v>16.99948310852051</v>
       </c>
       <c r="M65">
-        <v>10.99967956542969</v>
+        <v>17.99893379211426</v>
       </c>
       <c r="N65">
-        <v>23.05388450622559</v>
+        <v>34.99841690063477</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -7791,13 +7791,13 @@
         <v>4</v>
       </c>
       <c r="L66">
-        <v>12.0542049407959</v>
+        <v>16.99948310852051</v>
       </c>
       <c r="M66">
-        <v>10.99967956542969</v>
+        <v>17.99893379211426</v>
       </c>
       <c r="N66">
-        <v>23.05388450622559</v>
+        <v>34.99841690063477</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -7835,13 +7835,13 @@
         <v>4</v>
       </c>
       <c r="L67">
-        <v>12.0542049407959</v>
+        <v>16.99948310852051</v>
       </c>
       <c r="M67">
-        <v>10.99967956542969</v>
+        <v>17.99893379211426</v>
       </c>
       <c r="N67">
-        <v>23.05388450622559</v>
+        <v>34.99841690063477</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -7879,13 +7879,13 @@
         <v>2</v>
       </c>
       <c r="L68">
-        <v>12.18414306640625</v>
+        <v>12.20321655273438</v>
       </c>
       <c r="M68">
-        <v>11.50608062744141</v>
+        <v>11.9774341583252</v>
       </c>
       <c r="N68">
-        <v>23.69022369384766</v>
+        <v>24.18065071105957</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -7923,13 +7923,13 @@
         <v>4</v>
       </c>
       <c r="L69">
-        <v>9.996175765991211</v>
+        <v>11.00373268127441</v>
       </c>
       <c r="M69">
-        <v>2.001285552978516</v>
+        <v>2.001523971557617</v>
       </c>
       <c r="N69">
-        <v>11.99746131896973</v>
+        <v>13.00525665283203</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -7967,13 +7967,13 @@
         <v>4</v>
       </c>
       <c r="L70">
-        <v>9.996175765991211</v>
+        <v>11.00373268127441</v>
       </c>
       <c r="M70">
-        <v>2.001285552978516</v>
+        <v>2.001523971557617</v>
       </c>
       <c r="N70">
-        <v>11.99746131896973</v>
+        <v>13.00525665283203</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -8011,13 +8011,13 @@
         <v>4</v>
       </c>
       <c r="L71">
-        <v>9.996175765991211</v>
+        <v>11.00373268127441</v>
       </c>
       <c r="M71">
-        <v>2.001285552978516</v>
+        <v>2.001523971557617</v>
       </c>
       <c r="N71">
-        <v>11.99746131896973</v>
+        <v>13.00525665283203</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -8055,13 +8055,13 @@
         <v>4</v>
       </c>
       <c r="L72">
-        <v>9.996175765991211</v>
+        <v>11.00373268127441</v>
       </c>
       <c r="M72">
-        <v>2.001285552978516</v>
+        <v>2.001523971557617</v>
       </c>
       <c r="N72">
-        <v>11.99746131896973</v>
+        <v>13.00525665283203</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -8102,10 +8102,10 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>78.125</v>
+        <v>84.57136154174805</v>
       </c>
       <c r="N73">
-        <v>78.125</v>
+        <v>84.57136154174805</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -8146,10 +8146,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>78.125</v>
+        <v>84.57136154174805</v>
       </c>
       <c r="N74">
-        <v>78.125</v>
+        <v>84.57136154174805</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -8187,13 +8187,13 @@
         <v>4</v>
       </c>
       <c r="L75">
-        <v>10.70690155029297</v>
+        <v>13.5955810546875</v>
       </c>
       <c r="M75">
-        <v>8.998870849609375</v>
+        <v>8.976936340332031</v>
       </c>
       <c r="N75">
-        <v>19.70577239990234</v>
+        <v>22.57251739501953</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -8231,13 +8231,13 @@
         <v>4</v>
       </c>
       <c r="L76">
-        <v>10.70690155029297</v>
+        <v>13.5955810546875</v>
       </c>
       <c r="M76">
-        <v>8.998870849609375</v>
+        <v>8.976936340332031</v>
       </c>
       <c r="N76">
-        <v>19.70577239990234</v>
+        <v>22.57251739501953</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -8275,13 +8275,13 @@
         <v>4</v>
       </c>
       <c r="L77">
-        <v>10.70690155029297</v>
+        <v>13.5955810546875</v>
       </c>
       <c r="M77">
-        <v>8.998870849609375</v>
+        <v>8.976936340332031</v>
       </c>
       <c r="N77">
-        <v>19.70577239990234</v>
+        <v>22.57251739501953</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -8319,13 +8319,13 @@
         <v>4</v>
       </c>
       <c r="L78">
-        <v>10.70690155029297</v>
+        <v>13.5955810546875</v>
       </c>
       <c r="M78">
-        <v>8.998870849609375</v>
+        <v>8.976936340332031</v>
       </c>
       <c r="N78">
-        <v>19.70577239990234</v>
+        <v>22.57251739501953</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -8363,13 +8363,13 @@
         <v>4</v>
       </c>
       <c r="L79">
-        <v>12.90297508239746</v>
+        <v>16.99924468994141</v>
       </c>
       <c r="M79">
-        <v>26.63230895996094</v>
+        <v>35.54964065551758</v>
       </c>
       <c r="N79">
-        <v>39.5352840423584</v>
+        <v>52.54888534545898</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -8407,13 +8407,13 @@
         <v>4</v>
       </c>
       <c r="L80">
-        <v>12.90297508239746</v>
+        <v>16.99924468994141</v>
       </c>
       <c r="M80">
-        <v>26.63230895996094</v>
+        <v>35.54964065551758</v>
       </c>
       <c r="N80">
-        <v>39.5352840423584</v>
+        <v>52.54888534545898</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -8451,13 +8451,13 @@
         <v>4</v>
       </c>
       <c r="L81">
-        <v>12.90297508239746</v>
+        <v>16.99924468994141</v>
       </c>
       <c r="M81">
-        <v>26.63230895996094</v>
+        <v>35.54964065551758</v>
       </c>
       <c r="N81">
-        <v>39.5352840423584</v>
+        <v>52.54888534545898</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -8495,13 +8495,13 @@
         <v>4</v>
       </c>
       <c r="L82">
-        <v>12.90297508239746</v>
+        <v>16.99924468994141</v>
       </c>
       <c r="M82">
-        <v>26.63230895996094</v>
+        <v>35.54964065551758</v>
       </c>
       <c r="N82">
-        <v>39.5352840423584</v>
+        <v>52.54888534545898</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -8542,10 +8542,10 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>20.45822143554688</v>
+        <v>23.28968048095703</v>
       </c>
       <c r="N83">
-        <v>20.45822143554688</v>
+        <v>23.28968048095703</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -8583,13 +8583,13 @@
         <v>4</v>
       </c>
       <c r="L84">
-        <v>11.97147369384766</v>
+        <v>13.50522041320801</v>
       </c>
       <c r="M84">
-        <v>30.73883056640625</v>
+        <v>33.76913070678711</v>
       </c>
       <c r="N84">
-        <v>42.71030426025391</v>
+        <v>47.27435111999512</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -8627,13 +8627,13 @@
         <v>4</v>
       </c>
       <c r="L85">
-        <v>11.97147369384766</v>
+        <v>13.50522041320801</v>
       </c>
       <c r="M85">
-        <v>30.73883056640625</v>
+        <v>33.76913070678711</v>
       </c>
       <c r="N85">
-        <v>42.71030426025391</v>
+        <v>47.27435111999512</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -8671,13 +8671,13 @@
         <v>4</v>
       </c>
       <c r="L86">
-        <v>11.97147369384766</v>
+        <v>13.50522041320801</v>
       </c>
       <c r="M86">
-        <v>30.73883056640625</v>
+        <v>33.76913070678711</v>
       </c>
       <c r="N86">
-        <v>42.71030426025391</v>
+        <v>47.27435111999512</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -8715,13 +8715,13 @@
         <v>4</v>
       </c>
       <c r="L87">
-        <v>11.97147369384766</v>
+        <v>13.50522041320801</v>
       </c>
       <c r="M87">
-        <v>30.73883056640625</v>
+        <v>33.76913070678711</v>
       </c>
       <c r="N87">
-        <v>42.71030426025391</v>
+        <v>47.27435111999512</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -8759,13 +8759,13 @@
         <v>2</v>
       </c>
       <c r="L88">
-        <v>13.11349868774414</v>
+        <v>17.14825630187988</v>
       </c>
       <c r="M88">
-        <v>0.9996891021728516</v>
+        <v>3.016471862792969</v>
       </c>
       <c r="N88">
-        <v>14.11318778991699</v>
+        <v>20.16472816467285</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -8803,13 +8803,13 @@
         <v>2</v>
       </c>
       <c r="L89">
-        <v>11.00015640258789</v>
+        <v>16.00289344787598</v>
       </c>
       <c r="M89">
-        <v>1.505136489868164</v>
+        <v>2.997398376464844</v>
       </c>
       <c r="N89">
-        <v>12.50529289245605</v>
+        <v>19.00029182434082</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -8850,10 +8850,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>83.65464210510254</v>
+        <v>83.77218246459961</v>
       </c>
       <c r="N90">
-        <v>83.65464210510254</v>
+        <v>83.77218246459961</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -8891,13 +8891,13 @@
         <v>2</v>
       </c>
       <c r="L91">
-        <v>11.98601722717285</v>
+        <v>12.48741149902344</v>
       </c>
       <c r="M91">
-        <v>5.997896194458008</v>
+        <v>4.999160766601562</v>
       </c>
       <c r="N91">
-        <v>17.98391342163086</v>
+        <v>17.486572265625</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -8935,13 +8935,13 @@
         <v>4</v>
       </c>
       <c r="L92">
-        <v>13.99970054626465</v>
+        <v>16.50667190551758</v>
       </c>
       <c r="M92">
-        <v>28.00130844116211</v>
+        <v>32.58776664733887</v>
       </c>
       <c r="N92">
-        <v>42.00100898742676</v>
+        <v>49.09443855285645</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -8979,13 +8979,13 @@
         <v>4</v>
       </c>
       <c r="L93">
-        <v>13.99970054626465</v>
+        <v>16.50667190551758</v>
       </c>
       <c r="M93">
-        <v>28.00130844116211</v>
+        <v>32.58776664733887</v>
       </c>
       <c r="N93">
-        <v>42.00100898742676</v>
+        <v>49.09443855285645</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -9023,13 +9023,13 @@
         <v>4</v>
       </c>
       <c r="L94">
-        <v>13.99970054626465</v>
+        <v>16.50667190551758</v>
       </c>
       <c r="M94">
-        <v>28.00130844116211</v>
+        <v>32.58776664733887</v>
       </c>
       <c r="N94">
-        <v>42.00100898742676</v>
+        <v>49.09443855285645</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -9067,13 +9067,13 @@
         <v>4</v>
       </c>
       <c r="L95">
-        <v>13.99970054626465</v>
+        <v>16.50667190551758</v>
       </c>
       <c r="M95">
-        <v>28.00130844116211</v>
+        <v>32.58776664733887</v>
       </c>
       <c r="N95">
-        <v>42.00100898742676</v>
+        <v>49.09443855285645</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -9114,10 +9114,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>23.37479591369629</v>
+        <v>24.54280853271484</v>
       </c>
       <c r="N96">
-        <v>23.37479591369629</v>
+        <v>24.54280853271484</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -9155,13 +9155,13 @@
         <v>4</v>
       </c>
       <c r="L97">
-        <v>12.99738883972168</v>
+        <v>12.80641555786133</v>
       </c>
       <c r="M97">
-        <v>32.39560127258301</v>
+        <v>33.68997573852539</v>
       </c>
       <c r="N97">
-        <v>45.39299011230469</v>
+        <v>46.49639129638672</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -9199,13 +9199,13 @@
         <v>4</v>
       </c>
       <c r="L98">
-        <v>12.99738883972168</v>
+        <v>12.80641555786133</v>
       </c>
       <c r="M98">
-        <v>32.39560127258301</v>
+        <v>33.68997573852539</v>
       </c>
       <c r="N98">
-        <v>45.39299011230469</v>
+        <v>46.49639129638672</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -9243,13 +9243,13 @@
         <v>4</v>
       </c>
       <c r="L99">
-        <v>12.99738883972168</v>
+        <v>12.80641555786133</v>
       </c>
       <c r="M99">
-        <v>32.39560127258301</v>
+        <v>33.68997573852539</v>
       </c>
       <c r="N99">
-        <v>45.39299011230469</v>
+        <v>46.49639129638672</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -9287,13 +9287,13 @@
         <v>4</v>
       </c>
       <c r="L100">
-        <v>12.99738883972168</v>
+        <v>12.80641555786133</v>
       </c>
       <c r="M100">
-        <v>32.39560127258301</v>
+        <v>33.68997573852539</v>
       </c>
       <c r="N100">
-        <v>45.39299011230469</v>
+        <v>46.49639129638672</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -9331,13 +9331,13 @@
         <v>1</v>
       </c>
       <c r="L101">
-        <v>11.99722290039062</v>
+        <v>17.64607429504395</v>
       </c>
       <c r="M101">
-        <v>0.9968280792236328</v>
+        <v>1.000881195068359</v>
       </c>
       <c r="N101">
-        <v>12.99405097961426</v>
+        <v>18.6469554901123</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -9375,13 +9375,13 @@
         <v>2</v>
       </c>
       <c r="L102">
-        <v>10.99872589111328</v>
+        <v>14.9996280670166</v>
       </c>
       <c r="M102">
-        <v>1.999378204345703</v>
+        <v>2.999782562255859</v>
       </c>
       <c r="N102">
-        <v>12.99810409545898</v>
+        <v>17.99941062927246</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -9422,10 +9422,10 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>39.64900970458984</v>
+        <v>48.39181900024414</v>
       </c>
       <c r="N103">
-        <v>39.64900970458984</v>
+        <v>48.39181900024414</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -9463,13 +9463,13 @@
         <v>2</v>
       </c>
       <c r="L104">
-        <v>13.24629783630371</v>
+        <v>11.8410587310791</v>
       </c>
       <c r="M104">
-        <v>7.999658584594727</v>
+        <v>7.415294647216797</v>
       </c>
       <c r="N104">
-        <v>21.24595642089844</v>
+        <v>19.2563533782959</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -9507,13 +9507,13 @@
         <v>2</v>
       </c>
       <c r="L105">
-        <v>12.03656196594238</v>
+        <v>14.9986743927002</v>
       </c>
       <c r="M105">
-        <v>5.906343460083008</v>
+        <v>10.99944114685059</v>
       </c>
       <c r="N105">
-        <v>17.94290542602539</v>
+        <v>25.99811553955078</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -9551,13 +9551,13 @@
         <v>1</v>
       </c>
       <c r="L106">
-        <v>13.5035514831543</v>
+        <v>13.05723190307617</v>
       </c>
       <c r="M106">
-        <v>0</v>
+        <v>1.098871231079102</v>
       </c>
       <c r="N106">
-        <v>13.5035514831543</v>
+        <v>14.15610313415527</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -9595,13 +9595,13 @@
         <v>2</v>
       </c>
       <c r="L107">
-        <v>12.01701164245605</v>
+        <v>13.55361938476562</v>
       </c>
       <c r="M107">
-        <v>2.005577087402344</v>
+        <v>2.000331878662109</v>
       </c>
       <c r="N107">
-        <v>14.0225887298584</v>
+        <v>15.55395126342773</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -9639,13 +9639,13 @@
         <v>2</v>
       </c>
       <c r="L108">
-        <v>11.65437698364258</v>
+        <v>12.91537284851074</v>
       </c>
       <c r="M108">
-        <v>1.001119613647461</v>
+        <v>1.999855041503906</v>
       </c>
       <c r="N108">
-        <v>12.65549659729004</v>
+        <v>14.91522789001465</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -9686,10 +9686,10 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>38.88154029846191</v>
+        <v>45.40443420410156</v>
       </c>
       <c r="N109">
-        <v>38.88154029846191</v>
+        <v>45.40443420410156</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -9727,13 +9727,13 @@
         <v>2</v>
       </c>
       <c r="L110">
-        <v>11.99817657470703</v>
+        <v>10.99729537963867</v>
       </c>
       <c r="M110">
-        <v>7.000923156738281</v>
+        <v>9.268283843994141</v>
       </c>
       <c r="N110">
-        <v>18.99909973144531</v>
+        <v>20.26557922363281</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -9771,13 +9771,13 @@
         <v>2</v>
       </c>
       <c r="L111">
-        <v>12.63260841369629</v>
+        <v>12.00032234191895</v>
       </c>
       <c r="M111">
-        <v>7.976055145263672</v>
+        <v>6.981134414672852</v>
       </c>
       <c r="N111">
-        <v>20.60866355895996</v>
+        <v>18.9814567565918</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -9815,13 +9815,13 @@
         <v>2</v>
       </c>
       <c r="L112">
-        <v>13.04531097412109</v>
+        <v>17.71235466003418</v>
       </c>
       <c r="M112">
-        <v>9.811639785766602</v>
+        <v>11.20710372924805</v>
       </c>
       <c r="N112">
-        <v>22.8569507598877</v>
+        <v>28.91945838928223</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -9859,13 +9859,13 @@
         <v>3</v>
       </c>
       <c r="L113">
-        <v>13.87739181518555</v>
+        <v>14.21594619750977</v>
       </c>
       <c r="M113">
-        <v>30.28321266174316</v>
+        <v>31.85105323791504</v>
       </c>
       <c r="N113">
-        <v>44.16060447692871</v>
+        <v>46.0669994354248</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -9903,13 +9903,13 @@
         <v>3</v>
       </c>
       <c r="L114">
-        <v>13.87739181518555</v>
+        <v>14.21594619750977</v>
       </c>
       <c r="M114">
-        <v>30.28321266174316</v>
+        <v>31.85105323791504</v>
       </c>
       <c r="N114">
-        <v>44.16060447692871</v>
+        <v>46.0669994354248</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -9947,13 +9947,13 @@
         <v>3</v>
       </c>
       <c r="L115">
-        <v>13.87739181518555</v>
+        <v>14.21594619750977</v>
       </c>
       <c r="M115">
-        <v>30.28321266174316</v>
+        <v>31.85105323791504</v>
       </c>
       <c r="N115">
-        <v>44.16060447692871</v>
+        <v>46.0669994354248</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -9991,13 +9991,13 @@
         <v>3</v>
       </c>
       <c r="L116">
-        <v>11.00063323974609</v>
+        <v>14.00542259216309</v>
       </c>
       <c r="M116">
-        <v>2.999067306518555</v>
+        <v>3.994464874267578</v>
       </c>
       <c r="N116">
-        <v>13.99970054626465</v>
+        <v>17.99988746643066</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -10035,13 +10035,13 @@
         <v>3</v>
       </c>
       <c r="L117">
-        <v>11.00063323974609</v>
+        <v>14.00542259216309</v>
       </c>
       <c r="M117">
-        <v>2.999067306518555</v>
+        <v>3.994464874267578</v>
       </c>
       <c r="N117">
-        <v>13.99970054626465</v>
+        <v>17.99988746643066</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -10079,13 +10079,13 @@
         <v>3</v>
       </c>
       <c r="L118">
-        <v>11.00063323974609</v>
+        <v>14.00542259216309</v>
       </c>
       <c r="M118">
-        <v>2.999067306518555</v>
+        <v>3.994464874267578</v>
       </c>
       <c r="N118">
-        <v>13.99970054626465</v>
+        <v>17.99988746643066</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -10123,13 +10123,13 @@
         <v>3</v>
       </c>
       <c r="L119">
-        <v>9.97161865234375</v>
+        <v>14.99605178833008</v>
       </c>
       <c r="M119">
-        <v>7.000923156738281</v>
+        <v>8.999347686767578</v>
       </c>
       <c r="N119">
-        <v>16.97254180908203</v>
+        <v>23.99539947509766</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -10167,13 +10167,13 @@
         <v>3</v>
       </c>
       <c r="L120">
-        <v>9.97161865234375</v>
+        <v>14.99605178833008</v>
       </c>
       <c r="M120">
-        <v>7.000923156738281</v>
+        <v>8.999347686767578</v>
       </c>
       <c r="N120">
-        <v>16.97254180908203</v>
+        <v>23.99539947509766</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -10211,13 +10211,13 @@
         <v>3</v>
       </c>
       <c r="L121">
-        <v>9.97161865234375</v>
+        <v>14.99605178833008</v>
       </c>
       <c r="M121">
-        <v>7.000923156738281</v>
+        <v>8.999347686767578</v>
       </c>
       <c r="N121">
-        <v>16.97254180908203</v>
+        <v>23.99539947509766</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -10255,13 +10255,13 @@
         <v>3</v>
       </c>
       <c r="L122">
-        <v>11.89231872558594</v>
+        <v>14.99390602111816</v>
       </c>
       <c r="M122">
-        <v>6.975412368774414</v>
+        <v>11.0015869140625</v>
       </c>
       <c r="N122">
-        <v>18.86773109436035</v>
+        <v>25.99549293518066</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -10299,13 +10299,13 @@
         <v>3</v>
       </c>
       <c r="L123">
-        <v>11.89231872558594</v>
+        <v>14.99390602111816</v>
       </c>
       <c r="M123">
-        <v>6.975412368774414</v>
+        <v>11.0015869140625</v>
       </c>
       <c r="N123">
-        <v>18.86773109436035</v>
+        <v>25.99549293518066</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -10343,13 +10343,13 @@
         <v>3</v>
       </c>
       <c r="L124">
-        <v>11.89231872558594</v>
+        <v>14.99390602111816</v>
       </c>
       <c r="M124">
-        <v>6.975412368774414</v>
+        <v>11.0015869140625</v>
       </c>
       <c r="N124">
-        <v>18.86773109436035</v>
+        <v>25.99549293518066</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -10387,13 +10387,13 @@
         <v>3</v>
       </c>
       <c r="L125">
-        <v>13.39125633239746</v>
+        <v>16.9985294342041</v>
       </c>
       <c r="M125">
-        <v>8.172273635864258</v>
+        <v>13.00287246704102</v>
       </c>
       <c r="N125">
-        <v>21.56352996826172</v>
+        <v>30.00140190124512</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -10431,13 +10431,13 @@
         <v>3</v>
       </c>
       <c r="L126">
-        <v>13.39125633239746</v>
+        <v>16.9985294342041</v>
       </c>
       <c r="M126">
-        <v>8.172273635864258</v>
+        <v>13.00287246704102</v>
       </c>
       <c r="N126">
-        <v>21.56352996826172</v>
+        <v>30.00140190124512</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -10475,13 +10475,13 @@
         <v>3</v>
       </c>
       <c r="L127">
-        <v>13.39125633239746</v>
+        <v>16.9985294342041</v>
       </c>
       <c r="M127">
-        <v>8.172273635864258</v>
+        <v>13.00287246704102</v>
       </c>
       <c r="N127">
-        <v>21.56352996826172</v>
+        <v>30.00140190124512</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -10519,13 +10519,13 @@
         <v>2</v>
       </c>
       <c r="L128">
-        <v>10.99848747253418</v>
+        <v>17.18688011169434</v>
       </c>
       <c r="M128">
-        <v>1.762628555297852</v>
+        <v>1.999139785766602</v>
       </c>
       <c r="N128">
-        <v>12.76111602783203</v>
+        <v>19.18601989746094</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -10566,10 +10566,10 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
       <c r="N129">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -10610,10 +10610,10 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
       <c r="N130">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -10654,10 +10654,10 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
       <c r="N131">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -10698,10 +10698,10 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
       <c r="N132">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -10742,10 +10742,10 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
       <c r="N133">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -10786,10 +10786,10 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
       <c r="N134">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -10830,10 +10830,10 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
       <c r="N135">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -10874,10 +10874,10 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
       <c r="N136">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -10918,10 +10918,10 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
       <c r="N137">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -10962,10 +10962,10 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
       <c r="N138">
-        <v>166.5403842926025</v>
+        <v>194.3590641021729</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -11003,13 +11003,13 @@
         <v>2</v>
       </c>
       <c r="L139">
-        <v>11.0015869140625</v>
+        <v>17.00234413146973</v>
       </c>
       <c r="M139">
-        <v>2.001285552978516</v>
+        <v>0.9987354278564453</v>
       </c>
       <c r="N139">
-        <v>13.00287246704102</v>
+        <v>18.00107955932617</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>85.10971069335938</v>
+        <v>86.29393577575684</v>
       </c>
       <c r="N140">
-        <v>85.10971069335938</v>
+        <v>86.29393577575684</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -11091,13 +11091,13 @@
         <v>2</v>
       </c>
       <c r="L141">
-        <v>11.31510734558105</v>
+        <v>12.62307167053223</v>
       </c>
       <c r="M141">
-        <v>6.000757217407227</v>
+        <v>5.001306533813477</v>
       </c>
       <c r="N141">
-        <v>17.31586456298828</v>
+        <v>17.6243782043457</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -11135,13 +11135,13 @@
         <v>4</v>
       </c>
       <c r="L142">
-        <v>13.02719116210938</v>
+        <v>14.99843597412109</v>
       </c>
       <c r="M142">
-        <v>26.97062492370605</v>
+        <v>32.99379348754883</v>
       </c>
       <c r="N142">
-        <v>39.99781608581543</v>
+        <v>47.99222946166992</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -11179,13 +11179,13 @@
         <v>4</v>
       </c>
       <c r="L143">
-        <v>13.02719116210938</v>
+        <v>14.99843597412109</v>
       </c>
       <c r="M143">
-        <v>26.97062492370605</v>
+        <v>32.99379348754883</v>
       </c>
       <c r="N143">
-        <v>39.99781608581543</v>
+        <v>47.99222946166992</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -11223,13 +11223,13 @@
         <v>4</v>
       </c>
       <c r="L144">
-        <v>13.02719116210938</v>
+        <v>14.99843597412109</v>
       </c>
       <c r="M144">
-        <v>26.97062492370605</v>
+        <v>32.99379348754883</v>
       </c>
       <c r="N144">
-        <v>39.99781608581543</v>
+        <v>47.99222946166992</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -11267,13 +11267,13 @@
         <v>4</v>
       </c>
       <c r="L145">
-        <v>13.02719116210938</v>
+        <v>14.99843597412109</v>
       </c>
       <c r="M145">
-        <v>26.97062492370605</v>
+        <v>32.99379348754883</v>
       </c>
       <c r="N145">
-        <v>39.99781608581543</v>
+        <v>47.99222946166992</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>25.17080307006836</v>
+        <v>25.86770057678223</v>
       </c>
       <c r="N146">
-        <v>25.17080307006836</v>
+        <v>25.86770057678223</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -11355,13 +11355,13 @@
         <v>4</v>
       </c>
       <c r="L147">
-        <v>11.74259185791016</v>
+        <v>13.02051544189453</v>
       </c>
       <c r="M147">
-        <v>31.52346611022949</v>
+        <v>33.7529182434082</v>
       </c>
       <c r="N147">
-        <v>43.26605796813965</v>
+        <v>46.77343368530273</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -11399,13 +11399,13 @@
         <v>4</v>
       </c>
       <c r="L148">
-        <v>11.74259185791016</v>
+        <v>13.02051544189453</v>
       </c>
       <c r="M148">
-        <v>31.52346611022949</v>
+        <v>33.7529182434082</v>
       </c>
       <c r="N148">
-        <v>43.26605796813965</v>
+        <v>46.77343368530273</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -11443,13 +11443,13 @@
         <v>4</v>
       </c>
       <c r="L149">
-        <v>11.74259185791016</v>
+        <v>13.02051544189453</v>
       </c>
       <c r="M149">
-        <v>31.52346611022949</v>
+        <v>33.7529182434082</v>
       </c>
       <c r="N149">
-        <v>43.26605796813965</v>
+        <v>46.77343368530273</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -11487,13 +11487,13 @@
         <v>4</v>
       </c>
       <c r="L150">
-        <v>11.74259185791016</v>
+        <v>13.02051544189453</v>
       </c>
       <c r="M150">
-        <v>31.52346611022949</v>
+        <v>33.7529182434082</v>
       </c>
       <c r="N150">
-        <v>43.26605796813965</v>
+        <v>46.77343368530273</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -11534,10 +11534,10 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>23.99969100952148</v>
+        <v>31.1739444732666</v>
       </c>
       <c r="N151">
-        <v>23.99969100952148</v>
+        <v>31.1739444732666</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -11575,13 +11575,13 @@
         <v>2</v>
       </c>
       <c r="L152">
-        <v>12.725830078125</v>
+        <v>16.0377025604248</v>
       </c>
       <c r="M152">
-        <v>8.98289680480957</v>
+        <v>10.96773147583008</v>
       </c>
       <c r="N152">
-        <v>21.70872688293457</v>
+        <v>27.00543403625488</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -11619,13 +11619,13 @@
         <v>3</v>
       </c>
       <c r="L153">
-        <v>11.33632659912109</v>
+        <v>15.77115058898926</v>
       </c>
       <c r="M153">
-        <v>2.001523971557617</v>
+        <v>3.963708877563477</v>
       </c>
       <c r="N153">
-        <v>13.33785057067871</v>
+        <v>19.73485946655273</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -11663,13 +11663,13 @@
         <v>3</v>
       </c>
       <c r="L154">
-        <v>11.33632659912109</v>
+        <v>15.77115058898926</v>
       </c>
       <c r="M154">
-        <v>2.001523971557617</v>
+        <v>3.963708877563477</v>
       </c>
       <c r="N154">
-        <v>13.33785057067871</v>
+        <v>19.73485946655273</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -11707,13 +11707,13 @@
         <v>3</v>
       </c>
       <c r="L155">
-        <v>11.33632659912109</v>
+        <v>15.77115058898926</v>
       </c>
       <c r="M155">
-        <v>2.001523971557617</v>
+        <v>3.963708877563477</v>
       </c>
       <c r="N155">
-        <v>13.33785057067871</v>
+        <v>19.73485946655273</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -11754,10 +11754,10 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>38.27643394470215</v>
+        <v>43.94793510437012</v>
       </c>
       <c r="N156">
-        <v>38.27643394470215</v>
+        <v>43.94793510437012</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -11795,13 +11795,13 @@
         <v>3</v>
       </c>
       <c r="L157">
-        <v>12.00056076049805</v>
+        <v>10.96153259277344</v>
       </c>
       <c r="M157">
-        <v>11.99913024902344</v>
+        <v>9.738683700561523</v>
       </c>
       <c r="N157">
-        <v>23.99969100952148</v>
+        <v>20.70021629333496</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -11839,13 +11839,13 @@
         <v>3</v>
       </c>
       <c r="L158">
-        <v>12.00056076049805</v>
+        <v>10.96153259277344</v>
       </c>
       <c r="M158">
-        <v>11.99913024902344</v>
+        <v>9.738683700561523</v>
       </c>
       <c r="N158">
-        <v>23.99969100952148</v>
+        <v>20.70021629333496</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -11883,13 +11883,13 @@
         <v>3</v>
       </c>
       <c r="L159">
-        <v>12.00056076049805</v>
+        <v>10.96153259277344</v>
       </c>
       <c r="M159">
-        <v>11.99913024902344</v>
+        <v>9.738683700561523</v>
       </c>
       <c r="N159">
-        <v>23.99969100952148</v>
+        <v>20.70021629333496</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -11927,13 +11927,13 @@
         <v>3</v>
       </c>
       <c r="L160">
-        <v>10.84446907043457</v>
+        <v>23.73361587524414</v>
       </c>
       <c r="M160">
-        <v>9.198665618896484</v>
+        <v>18.3260440826416</v>
       </c>
       <c r="N160">
-        <v>20.04313468933105</v>
+        <v>42.05965995788574</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -11971,13 +11971,13 @@
         <v>3</v>
       </c>
       <c r="L161">
-        <v>10.84446907043457</v>
+        <v>23.73361587524414</v>
       </c>
       <c r="M161">
-        <v>9.198665618896484</v>
+        <v>18.3260440826416</v>
       </c>
       <c r="N161">
-        <v>20.04313468933105</v>
+        <v>42.05965995788574</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -12015,13 +12015,13 @@
         <v>3</v>
       </c>
       <c r="L162">
-        <v>10.84446907043457</v>
+        <v>23.73361587524414</v>
       </c>
       <c r="M162">
-        <v>9.198665618896484</v>
+        <v>18.3260440826416</v>
       </c>
       <c r="N162">
-        <v>20.04313468933105</v>
+        <v>42.05965995788574</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -12059,13 +12059,13 @@
         <v>2</v>
       </c>
       <c r="L163">
-        <v>14.49728012084961</v>
+        <v>15.03849029541016</v>
       </c>
       <c r="M163">
-        <v>3.000974655151367</v>
+        <v>2.978324890136719</v>
       </c>
       <c r="N163">
-        <v>17.49825477600098</v>
+        <v>18.01681518554688</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -12103,13 +12103,13 @@
         <v>2</v>
       </c>
       <c r="L164">
-        <v>11.94977760314941</v>
+        <v>15.53487777709961</v>
       </c>
       <c r="M164">
-        <v>13.32879066467285</v>
+        <v>20.99490165710449</v>
       </c>
       <c r="N164">
-        <v>25.27856826782227</v>
+        <v>36.5297794342041</v>
       </c>
     </row>
   </sheetData>
@@ -12159,7 +12159,7 @@
         <v>0.62</v>
       </c>
       <c r="E2">
-        <v>80.22746086120605</v>
+        <v>87.94690132141113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12176,7 +12176,7 @@
         <v>2.64</v>
       </c>
       <c r="E3">
-        <v>22.97874450683594</v>
+        <v>27.67958641052246</v>
       </c>
     </row>
   </sheetData>
